--- a/tables/CSIEM_Model_Catalogue_Extract.xlsx
+++ b/tables/CSIEM_Model_Catalogue_Extract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCAC62D-6BB0-460C-9FFC-EFDCC01CC5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5312DB7-C7F2-4350-AC35-8830D033980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{73B48DFC-AAF0-4854-95DA-ACDEFB16E5F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73B48DFC-AAF0-4854-95DA-ACDEFB16E5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Model Classification</t>
-  </si>
-  <si>
     <t>ROMS</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Hydrodynamics</t>
   </si>
   <si>
-    <t>Hydrodynamics; Biogeochemistry</t>
-  </si>
-  <si>
     <t>Meteorology</t>
   </si>
   <si>
@@ -226,6 +220,12 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Hydrodynamics-Biogeochemistry</t>
   </si>
 </sst>
 </file>
@@ -600,39 +600,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE56966-8FF0-4FFE-921A-ADB1F1CEC0A9}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="220" zoomScaleNormal="262" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1"/>
-    <col min="2" max="2" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -647,48 +647,48 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1">
         <v>1970</v>
@@ -697,39 +697,39 @@
         <v>2020</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1">
         <v>1990</v>
@@ -738,42 +738,42 @@
         <v>2019</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1">
         <v>2011</v>
@@ -782,39 +782,39 @@
         <v>2021</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="I5" s="1">
         <v>2011</v>
@@ -823,39 +823,39 @@
         <v>2021</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>2000</v>
@@ -864,39 +864,39 @@
         <v>2022.5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1">
         <v>2005</v>
@@ -905,40 +905,40 @@
         <v>2015</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I8" s="1">
         <v>2007</v>
@@ -947,39 +947,39 @@
         <v>2020</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1">
         <v>2010</v>
@@ -988,13 +988,13 @@
         <v>2021</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/tables/CSIEM_Model_Catalogue_Extract.xlsx
+++ b/tables/CSIEM_Model_Catalogue_Extract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5312DB7-C7F2-4350-AC35-8830D033980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D87FF8-510C-4824-8CF3-5681F6DD9827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73B48DFC-AAF0-4854-95DA-ACDEFB16E5F7}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15540" xr2:uid="{73B48DFC-AAF0-4854-95DA-ACDEFB16E5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,10 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Classification</t>
-  </si>
-  <si>
     <t>Hydrodynamics-Biogeochemistry</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
         <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -920,7 +920,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -961,7 +961,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>

--- a/tables/CSIEM_Model_Catalogue_Extract.xlsx
+++ b/tables/CSIEM_Model_Catalogue_Extract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-science\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D87FF8-510C-4824-8CF3-5681F6DD9827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FAFD1A-FCC0-4D76-9480-3838B4446882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15540" xr2:uid="{73B48DFC-AAF0-4854-95DA-ACDEFB16E5F7}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="15540" xr2:uid="{73B48DFC-AAF0-4854-95DA-ACDEFB16E5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>Agency / Organisation</t>
   </si>
@@ -226,6 +226,21 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Ecology</t>
+  </si>
+  <si>
+    <t>EcoPath</t>
+  </si>
+  <si>
+    <t>Cockburn Sound Food Web Model</t>
+  </si>
+  <si>
+    <t>WWMSP1.3</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -598,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE56966-8FF0-4FFE-921A-ADB1F1CEC0A9}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -991,13 +1006,55 @@
         <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>